--- a/pidev-ARSAN/ListOfTeams.xlsx
+++ b/pidev-ARSAN/ListOfTeams.xlsx
@@ -119,7 +119,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>team10</t>
+    <t>hunterteam</t>
   </si>
 </sst>
 </file>
@@ -306,13 +306,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/pidev-ARSAN/ListOfTeams.xlsx
+++ b/pidev-ARSAN/ListOfTeams.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>id_team</t>
   </si>
@@ -23,9 +23,6 @@
     <t>team_name</t>
   </si>
   <si>
-    <t>creator</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
     <t>ARSAN team</t>
   </si>
   <si>
-    <t>syrine</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -47,9 +41,6 @@
     <t>hunterTeam</t>
   </si>
   <si>
-    <t>eya</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>LegendsTeam</t>
   </si>
   <si>
-    <t>sayf</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -71,9 +59,6 @@
     <t>HerosTeam</t>
   </si>
   <si>
-    <t>anas</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -83,18 +68,12 @@
     <t>SAMteam</t>
   </si>
   <si>
-    <t>rihab</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>Trophyteam</t>
   </si>
   <si>
-    <t>ayoub</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -104,16 +83,10 @@
     <t>Powerteam</t>
   </si>
   <si>
-    <t>nermine</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>hnteam</t>
-  </si>
-  <si>
-    <t>sarra</t>
   </si>
   <si>
     <t>10</t>
@@ -164,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="150"/>
   </sheetViews>
@@ -185,134 +158,104 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/pidev-ARSAN/ListOfTeams.xlsx
+++ b/pidev-ARSAN/ListOfTeams.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>id_team</t>
   </si>
@@ -26,10 +26,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>Global Offensive</t>
-  </si>
-  <si>
-    <t>ARSAN team</t>
+    <t>PUBG</t>
+  </si>
+  <si>
+    <t>WinnersTeam</t>
   </si>
   <si>
     <t>2</t>
@@ -62,9 +62,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>PUBG</t>
-  </si>
-  <si>
     <t>SAMteam</t>
   </si>
   <si>
@@ -77,7 +74,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Fortnite</t>
+    <t>Call of Duty</t>
   </si>
   <si>
     <t>Powerteam</t>
@@ -86,13 +83,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>hnteam</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>hunterteam</t>
+    <t>hunter</t>
   </si>
 </sst>
 </file>
@@ -137,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="150"/>
   </sheetViews>
@@ -208,54 +199,43 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
